--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E328FC-D588-4625-BEAC-FFD49334DE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7F1CF-D8D3-422F-8B81-56F005DDD146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -165,13 +165,13 @@
     <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Instantáneo</t>
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo.</t>
   </si>
 </sst>
 </file>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:W312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>34</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>34</v>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>34</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>34</v>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V1" s="12" t="s">
         <v>34</v>
@@ -999,38 +999,38 @@
         <v>35</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>36</v>
+      <c r="J3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>36</v>
+      <c r="M3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>36</v>
+      <c r="P3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>36</v>
+      <c r="S3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>36</v>
+      <c r="V3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="W3" s="13" t="s">
         <v>29</v>
@@ -19898,7 +19898,7 @@
       <c r="W312" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CN3B7NsX4qiA8Us30AZvG1Susa8YeeYoesbu2wOE0C/ft8wprtS/jrCF+N3CD3rMcogGE7dnniSs2rKhAbPQqA==" saltValue="ao/yVcA1Tz93p6B4BYIYuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8jZI4ZXhgH+M/PblnUktB3gpSbZBC3W27RNloAvN9Oqz2CcjcTnFi+60dto52u/CMPxGA7mTh92kd1GODT4yiA==" saltValue="SSF6wZxpDwf4zI+ahEmyjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:W2"/>
   </mergeCells>
@@ -20008,7 +20008,7 @@
         <v>2013</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7F1CF-D8D3-422F-8B81-56F005DDD146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0491D-6449-4D83-B9A2-A07C8526564B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="54">
   <si>
     <t>Año</t>
   </si>
@@ -144,25 +144,10 @@
     <t>Capacidad (L)</t>
   </si>
   <si>
-    <t>Número de unidades de este equipo. Inserte su dato.</t>
-  </si>
-  <si>
-    <t>Año en que se compró el equipo. Seleccione de la  lista desplegable.</t>
-  </si>
-  <si>
-    <t>Capacidad del calentador de agua eléctrico. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
     <t>Etiqueta de EE BAU</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE Acción</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
   </si>
   <si>
     <t>Instantáneo</t>
@@ -171,7 +156,67 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo.</t>
+    <t>Capacidad del calentador de agua a GLP. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Año de registro. Seleccione de la  lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE de linea base. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (A)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (B)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (C)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (D)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (E)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (F)</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta A. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo A.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo B.</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta B. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo C.</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta C. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo D.</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta D. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo E.</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta E. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo F.</t>
+  </si>
+  <si>
+    <t>Número de calentadores de agua a GLP con etiqueta F. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
   </si>
 </sst>
 </file>
@@ -857,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:W312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,23 +914,23 @@
     <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="22.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -902,58 +947,58 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>3</v>
@@ -961,7 +1006,7 @@
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -987,53 +1032,53 @@
       <c r="W2" s="32"/>
     </row>
     <row r="3" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>30</v>
+      <c r="A3" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -19898,7 +19943,7 @@
       <c r="W312" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8jZI4ZXhgH+M/PblnUktB3gpSbZBC3W27RNloAvN9Oqz2CcjcTnFi+60dto52u/CMPxGA7mTh92kd1GODT4yiA==" saltValue="SSF6wZxpDwf4zI+ahEmyjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kxWw4SascCfZLicYzJLN+39XzZ/eIsuZWfPOdHmrrDPIb6SQyoLcxYav9t4p6E6VLYK2zhn03wzISzSAOOTFdQ==" saltValue="AgEgAR1827TLTtdY69glrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:W2"/>
   </mergeCells>
@@ -20008,7 +20053,7 @@
         <v>2013</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_GLP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0491D-6449-4D83-B9A2-A07C8526564B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D1B10-D2E3-4FFC-B6E1-B7CECD41FB3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -43,12 +43,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,9 +138,6 @@
     <t>Capacidad (L)</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-  </si>
-  <si>
     <t>Etiqueta de EE BAU</t>
   </si>
   <si>
@@ -217,6 +208,9 @@
   </si>
   <si>
     <t>Número de calentadores de agua a GLP con etiqueta F. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos. Evite borrar las etiquetas que se muestran por defecto desplegadas.</t>
   </si>
 </sst>
 </file>
@@ -902,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:W312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,58 +941,58 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>3</v>
@@ -1006,7 +1000,7 @@
     </row>
     <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1033,52 +1027,52 @@
     </row>
     <row r="3" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -16718,12 +16712,12 @@
     <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="15"/>
       <c r="B260" s="15" t="e">
-        <f t="shared" ref="B260:B311" si="32">VLOOKUP(C260,Tabla_Capacidad,2,)</f>
+        <f t="shared" ref="B260:B312" si="32">VLOOKUP(C260,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="15"/>
       <c r="D260" s="15" t="e">
-        <f t="shared" ref="D260:D311" si="33">VLOOKUP(E260,Tabla_BAU,2,)</f>
+        <f t="shared" ref="D260:D312" si="33">VLOOKUP(E260,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="15"/>
@@ -19889,9 +19883,15 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" s="15"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="15" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
       <c r="C312" s="15"/>
-      <c r="D312" s="15"/>
+      <c r="D312" s="15" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
       <c r="E312" s="15"/>
       <c r="F312" s="20">
         <f t="shared" si="34"/>
@@ -19943,7 +19943,7 @@
       <c r="W312" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kxWw4SascCfZLicYzJLN+39XzZ/eIsuZWfPOdHmrrDPIb6SQyoLcxYav9t4p6E6VLYK2zhn03wzISzSAOOTFdQ==" saltValue="AgEgAR1827TLTtdY69glrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n/k6CZxMP01iEA7zGTslIZ+lDqZWHQ9LotXkmEhBR3Pj3IqBNbM2PRw/rkUEi/oQsRqJS9WZ32cUlifGDfXUUA==" saltValue="FpUW+yk20N7+ygLa6GaVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:W2"/>
   </mergeCells>
@@ -20053,7 +20053,7 @@
         <v>2013</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
